--- a/BalanceSheet/BR_bal.xlsx
+++ b/BalanceSheet/BR_bal.xlsx
@@ -1954,19 +1954,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>80400000.0</v>
+        <v>132000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-220600000.0</v>
+        <v>120000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>81300000.0</v>
+        <v>152000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>132300000.0</v>
+        <v>147000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>35500000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>547900000.0</v>
@@ -3092,19 +3092,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>6200000.0</v>
+        <v>141000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>4700000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>19300000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>10500000.0</v>
+        <v>113000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-8300000.0</v>
+        <v>99000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>96000000.0</v>
